--- a/software/alto_command.xlsx
+++ b/software/alto_command.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylem\Desktop\alto_frontend_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liaochikon\Desktop\alto3\ALTO-3D-Printed-Desktop-6-Axis-Robotic-Arm\software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390EE2F7-CC5F-47D6-923B-87F20FEB5AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B0A67-0E11-4045-88A0-543AD610BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
   <si>
     <r>
       <t>ALTO_STEPPER_STOP</t>
@@ -816,130 +816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>步進馬達依絕對座標旋轉輸入步數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步進馬達依相對座標旋轉輸入步數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即停止步進馬達旋轉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設當前角度為步進馬達零點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得當前步進馬達角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置步進馬達過電狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得當前步進馬達步數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得當前步進馬達誤差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得當前步進馬達過電狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得當前步進馬達堵轉狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得當前步進馬達速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得當前步進馬達加速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得當前步進馬達忙碌狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置步進馬達速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置步進馬達加速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人當前模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人到位旗標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人忙碌旗標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人歸零旗標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人當前TCP X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人當前TCP Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人當前TCP Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人當前TCP RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人當前TCP RY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人當前TCP RZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人目標TCP X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人目標TCP Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人目標TCP Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人目標TCP RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人目標TCP RY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人目標TCP RZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,98 +988,6 @@
     <t>0x56</t>
   </si>
   <si>
-    <t>取得機器人當前軸角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得機器人目標軸角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人為操作模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人為不過電模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人為歸零模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人開始動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人停止動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人歸零誤差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人目標軸角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人座標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人加速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人移動模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人目標TCP X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人目標TCP Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人目標TCP Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人目標TCP RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人目標TCP RY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置機器人目標TCP RZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cmd, id</t>
   </si>
   <si>
@@ -1243,27 +1027,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立即移動機器人TCP X</t>
+    <t>Command Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立即移動設置機器人TCP Y</t>
+    <t>Command ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立即移動設置機器人TCP Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即移動設置機器人TCP RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即移動設置機器人TCP RY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即移動設置機器人TCP RZ</t>
+    <t>Command Format</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1606,825 +1378,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="47.0703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
     </row>
   </sheetData>

--- a/software/alto_command.xlsx
+++ b/software/alto_command.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liaochikon\Desktop\alto3\ALTO-3D-Printed-Desktop-6-Axis-Robotic-Arm\software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B0A67-0E11-4045-88A0-543AD610BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F4770D-2CE0-46AC-84E8-00701DA9BEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Command Format</t>
+    <t xml:space="preserve">Command Format </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
